--- a/ODK/forms/Roads.xlsx
+++ b/ODK/forms/Roads.xlsx
@@ -375,7 +375,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D5"/>
+  <dimension ref="A1:E5"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -390,6 +390,9 @@
       <c r="D1" t="str">
         <v>hint::English</v>
       </c>
+      <c r="E1" t="str">
+        <v>relevant</v>
+      </c>
     </row>
     <row r="2">
       <c r="A2" t="str">
@@ -402,7 +405,7 @@
         <v>Name (if any)</v>
       </c>
       <c r="D2" t="str">
-        <v/>
+        <v>Barriers across road</v>
       </c>
     </row>
     <row r="3">
@@ -418,27 +421,27 @@
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>select_one choices_highway</v>
+        <v>select_one choices_surface</v>
       </c>
       <c r="B4" t="str">
-        <v>highway</v>
+        <v>surface</v>
       </c>
       <c r="C4" t="str">
-        <v>Road Type</v>
-      </c>
-      <c r="D4" t="str">
-        <v/>
+        <v>Surface</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>select_one choices_surface</v>
+        <v>select_one choices_highway</v>
       </c>
       <c r="B5" t="str">
-        <v>surface</v>
+        <v>highway</v>
       </c>
       <c r="C5" t="str">
-        <v>Road Surface</v>
+        <v>Highway</v>
+      </c>
+      <c r="E5" t="str">
+        <v>()</v>
       </c>
     </row>
   </sheetData>
@@ -447,7 +450,7 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:C16"/>
+  <dimension ref="A1:C12"/>
   <sheetData>
     <row r="1">
       <c r="A1" t="str">
@@ -462,68 +465,68 @@
     </row>
     <row r="2">
       <c r="A2" t="str">
-        <v>choices_highway</v>
+        <v>choices_surface</v>
       </c>
       <c r="B2" t="str">
-        <v>residential</v>
+        <v>dirt</v>
       </c>
       <c r="C2" t="str">
-        <v>Residential</v>
+        <v>Dirt</v>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="str">
-        <v>choices_highway</v>
+        <v>choices_surface</v>
       </c>
       <c r="B3" t="str">
-        <v>primary</v>
+        <v>paved</v>
       </c>
       <c r="C3" t="str">
-        <v>Primary</v>
+        <v>Paved</v>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="str">
-        <v>choices_highway</v>
+        <v>choices_surface</v>
       </c>
       <c r="B4" t="str">
-        <v>secondary</v>
+        <v>unclassified</v>
       </c>
       <c r="C4" t="str">
-        <v>Secondary</v>
+        <v>4x4 Only</v>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="str">
-        <v>choices_highway</v>
+        <v>choices_surface</v>
       </c>
       <c r="B5" t="str">
-        <v>tertiay</v>
+        <v>gravel</v>
       </c>
       <c r="C5" t="str">
-        <v>Tertiary</v>
+        <v>Gravel</v>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="str">
-        <v>choices_highway</v>
+        <v>choices_surface</v>
       </c>
       <c r="B6" t="str">
-        <v>service</v>
+        <v>cobblestone</v>
       </c>
       <c r="C6" t="str">
-        <v>Service</v>
+        <v>Cobblestone</v>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="str">
-        <v>choices_highway</v>
+        <v>choices_surface</v>
       </c>
       <c r="B7" t="str">
-        <v>track</v>
+        <v>grass</v>
       </c>
       <c r="C7" t="str">
-        <v>Track</v>
+        <v>Grass</v>
       </c>
     </row>
     <row r="8">
@@ -531,98 +534,54 @@
         <v>choices_highway</v>
       </c>
       <c r="B8" t="str">
-        <v>footway</v>
+        <v>tertiary</v>
       </c>
       <c r="C8" t="str">
-        <v>Footway</v>
+        <v>tertiary</v>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="str">
-        <v>choices_surface</v>
+        <v>choices_highway</v>
       </c>
       <c r="B9" t="str">
-        <v>unpaved</v>
+        <v>unclassified</v>
       </c>
       <c r="C9" t="str">
-        <v>Unpaved</v>
+        <v>Unclassified</v>
       </c>
     </row>
     <row r="10">
       <c r="A10" t="str">
-        <v>choices_surface</v>
+        <v>choices_highway</v>
       </c>
       <c r="B10" t="str">
-        <v>dirt</v>
+        <v>secondary</v>
       </c>
       <c r="C10" t="str">
-        <v>Dirt</v>
+        <v>secondary</v>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="str">
-        <v>choices_surface</v>
+        <v>choices_highway</v>
       </c>
       <c r="B11" t="str">
-        <v>gravel</v>
+        <v>trunk</v>
       </c>
       <c r="C11" t="str">
-        <v>Gravel</v>
+        <v>Trunk</v>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="str">
-        <v>choices_surface</v>
+        <v>choices_highway</v>
       </c>
       <c r="B12" t="str">
-        <v>cobblestone</v>
+        <v>primary</v>
       </c>
       <c r="C12" t="str">
-        <v>Cobblestone</v>
-      </c>
-    </row>
-    <row r="13">
-      <c r="A13" t="str">
-        <v>choices_surface</v>
-      </c>
-      <c r="B13" t="str">
-        <v>paving_stones</v>
-      </c>
-      <c r="C13" t="str">
-        <v>Paving Stones</v>
-      </c>
-    </row>
-    <row r="14">
-      <c r="A14" t="str">
-        <v>choices_surface</v>
-      </c>
-      <c r="B14" t="str">
-        <v>asphalt</v>
-      </c>
-      <c r="C14" t="str">
-        <v>Asphalt</v>
-      </c>
-    </row>
-    <row r="15">
-      <c r="A15" t="str">
-        <v>choices_surface</v>
-      </c>
-      <c r="B15" t="str">
-        <v>concrete</v>
-      </c>
-      <c r="C15" t="str">
-        <v>Concrete</v>
-      </c>
-    </row>
-    <row r="16">
-      <c r="A16" t="str">
-        <v>choices_surface</v>
-      </c>
-      <c r="B16" t="str">
-        <v>wood</v>
-      </c>
-      <c r="C16" t="str">
-        <v>Wood</v>
+        <v>Primary</v>
       </c>
     </row>
   </sheetData>
@@ -655,7 +614,7 @@
         <v>Roads</v>
       </c>
       <c r="B2" t="str">
-        <v>build_Roads_1503347268</v>
+        <v>build_Roads_1503531176</v>
       </c>
       <c r="C2" t="str">
         <v/>
